--- a/Input/DIC_Basic/rateSheet.xlsx
+++ b/Input/DIC_Basic/rateSheet.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">copay</t>
   </si>
   <si>
-    <t xml:space="preserve">relation</t>
+    <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">frequency</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">20%</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary (Low Salary Band)</t>
+    <t xml:space="preserve">primary_lsb</t>
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
@@ -82,19 +82,19 @@
     <t xml:space="preserve">USD</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary - Investor</t>
+    <t xml:space="preserve">primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary_investor</t>
   </si>
   <si>
     <t xml:space="preserve">female</t>
   </si>
   <si>
-    <t xml:space="preserve">Dependent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependent - Parent</t>
+    <t xml:space="preserve">dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependent_parent</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,37 +212,45 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="63.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +386,7 @@
       <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
@@ -521,7 +529,7 @@
       <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="0" t="s">
@@ -696,7 +704,7 @@
       <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="0" t="s">
@@ -731,7 +739,7 @@
       <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="0" t="s">
